--- a/VP/VP_FILTER_SKU (6).xlsx
+++ b/VP/VP_FILTER_SKU (6).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9040A1F-BD9E-4897-B352-0B2037C0F1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03527CE-F71B-433B-A044-61CA651A0488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28785" yWindow="1425" windowWidth="25305" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="780" windowWidth="25305" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +170,11 @@
       <color rgb="FF444444"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="33">
@@ -513,10 +518,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -896,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,6 +1338,11 @@
         <v>10004437</v>
       </c>
     </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>10126309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VP/VP_FILTER_SKU (6).xlsx
+++ b/VP/VP_FILTER_SKU (6).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03527CE-F71B-433B-A044-61CA651A0488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F471843-13E0-4F14-AD43-9969F1D9C8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="780" windowWidth="25305" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="780" windowWidth="25305" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp_sku_list" sheetId="1" r:id="rId1"/>
@@ -902,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1343,11 @@
         <v>10126309</v>
       </c>
     </row>
+    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>10025976</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
